--- a/Giptijdsbesteding.xlsx
+++ b/Giptijdsbesteding.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21516\Desktop\GIP totaal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\coincollector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207C35D-ED0A-431B-A6F7-7EF6C41C1562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5C8FA-E647-47F9-AF55-FDBD47B81E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GIP tijdsbesteding" sheetId="1" r:id="rId1"/>
+    <sheet name="nog te doen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -76,13 +77,85 @@
   </si>
   <si>
     <t>3d desgin nagedacht en de behuizing ontworpen en uitprinten</t>
+  </si>
+  <si>
+    <t>3d dispenser prototype en het maken van de dispenser code , een zakgeld php pagina toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nog te doen: </t>
+  </si>
+  <si>
+    <t>behuizing</t>
+  </si>
+  <si>
+    <t>stappen:</t>
+  </si>
+  <si>
+    <t>prototype (paste niet goed )</t>
+  </si>
+  <si>
+    <t>aanpassen op basis van dispenser grootte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispenser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prototype aan het printen </t>
+  </si>
+  <si>
+    <t>laten werken met servos</t>
+  </si>
+  <si>
+    <t>laten werken met de php pagina</t>
+  </si>
+  <si>
+    <t>munten die binnen komen van de collector verdelen naar de juiste dispenser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">php paginas finaliseren,style </t>
+  </si>
+  <si>
+    <t xml:space="preserve">code en paginas gemaakt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coincollecter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionaliteit doelen </t>
+  </si>
+  <si>
+    <t>eventuel grafieken voor de doelen</t>
+  </si>
+  <si>
+    <t>leren hoe  het werkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de coincollecter traine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laten tellen met de code </t>
+  </si>
+  <si>
+    <t>de getelde waarde in de database steken</t>
+  </si>
+  <si>
+    <t>doelen kunnen ressetten en de bank legen</t>
+  </si>
+  <si>
+    <t>stap2</t>
+  </si>
+  <si>
+    <t>stap3</t>
+  </si>
+  <si>
+    <t>stap1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +163,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,14 +217,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -129,6 +247,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D2010A1-06E6-4F00-8ADD-B4EAF4DC6AB6}" name="Tabel2" displayName="Tabel2" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{8D2010A1-06E6-4F00-8ADD-B4EAF4DC6AB6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{15B90CC4-6956-47D7-A984-37D129CA2C0D}" name="nog te doen: "/>
+    <tableColumn id="2" xr3:uid="{A97515EB-D2E4-49B9-B8A9-F60BF91EDA11}" name="stappen:" dataCellStyle="Goed"/>
+    <tableColumn id="3" xr3:uid="{481406F5-0F2A-41D1-9044-DFFF22369A8E}" name="stap1" dataCellStyle="Goed"/>
+    <tableColumn id="4" xr3:uid="{48EAFA30-A87C-4042-94CC-FAAEBCDC26EA}" name="stap2"/>
+    <tableColumn id="5" xr3:uid="{17F78619-6183-44C0-899B-F60674DEEF0D}" name="stap3" dataCellStyle="Ongeldig"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,16 +526,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="161.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,7 +649,122 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B990E1EF-39F8-4C95-B27F-B57F5DC33BFE}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Giptijdsbesteding.xlsx
+++ b/Giptijdsbesteding.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\coincollector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21516\Documents\GitHub\coincollector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5C8FA-E647-47F9-AF55-FDBD47B81E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GIP tijdsbesteding" sheetId="1" r:id="rId1"/>
-    <sheet name="nog te doen" sheetId="2" r:id="rId2"/>
+    <sheet name="Planning" sheetId="2" r:id="rId2"/>
+    <sheet name="matriaal lijst " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -37,24 +37,12 @@
     <t xml:space="preserve">Na gedacht over het design, muntenteller uitgetest(niet gelukt), voorbeeldcode en werking opgezocht,elektrisch schema nagebootst </t>
   </si>
   <si>
-    <t>welke lesuren</t>
-  </si>
-  <si>
-    <t>8:30-12:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">verder gewerkt aan de php paginas </t>
   </si>
   <si>
     <t xml:space="preserve">verder gewerkt aan de php paginas , werking muntenteller leren </t>
   </si>
   <si>
-    <t>8:30-11:10</t>
-  </si>
-  <si>
-    <t>9:20-12:00</t>
-  </si>
-  <si>
     <t>progressie verloren door nieuwe image op pc, recupereren en herstellen van gip, verder werken php en arduino paginas , Behuizing zoeken, zoeken instellen van munten teller</t>
   </si>
   <si>
@@ -64,24 +52,15 @@
     <t>probleem ondervonden met esp32 wifi disconcected en muntenteler opnieuw setten en sample munten geven de arduino code fixen</t>
   </si>
   <si>
-    <t xml:space="preserve">ziek </t>
-  </si>
-  <si>
     <t>3d desgin nagedacht en de behuizing ontworpen (thuis)</t>
   </si>
   <si>
     <t>debuggen van arduino code en de basis werking van de munten met de esp laten werken</t>
   </si>
   <si>
-    <t>9:20-12:00 en 13:00-16:30</t>
-  </si>
-  <si>
     <t>3d desgin nagedacht en de behuizing ontworpen en uitprinten</t>
   </si>
   <si>
-    <t>3d dispenser prototype en het maken van de dispenser code , een zakgeld php pagina toevoegen</t>
-  </si>
-  <si>
     <t xml:space="preserve">nog te doen: </t>
   </si>
   <si>
@@ -97,30 +76,12 @@
     <t>aanpassen op basis van dispenser grootte</t>
   </si>
   <si>
-    <t xml:space="preserve">dispenser </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prototype aan het printen </t>
-  </si>
-  <si>
-    <t>laten werken met servos</t>
-  </si>
-  <si>
-    <t>laten werken met de php pagina</t>
-  </si>
-  <si>
-    <t>munten die binnen komen van de collector verdelen naar de juiste dispenser</t>
-  </si>
-  <si>
     <t xml:space="preserve">php paginas finaliseren,style </t>
   </si>
   <si>
     <t xml:space="preserve">code en paginas gemaakt </t>
   </si>
   <si>
-    <t xml:space="preserve">coincollecter </t>
-  </si>
-  <si>
     <t xml:space="preserve">functionaliteit doelen </t>
   </si>
   <si>
@@ -130,15 +91,9 @@
     <t>leren hoe  het werkt</t>
   </si>
   <si>
-    <t xml:space="preserve">de coincollecter traine </t>
-  </si>
-  <si>
     <t xml:space="preserve">laten tellen met de code </t>
   </si>
   <si>
-    <t>de getelde waarde in de database steken</t>
-  </si>
-  <si>
     <t>doelen kunnen ressetten en de bank legen</t>
   </si>
   <si>
@@ -149,13 +104,109 @@
   </si>
   <si>
     <t>stap1</t>
+  </si>
+  <si>
+    <t>Aan de statistieken pagina werken</t>
+  </si>
+  <si>
+    <t>Aan het overzicht pagina werken</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
+  </si>
+  <si>
+    <t>Aan de login pagina werken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aan de doelen pagina werken </t>
+  </si>
+  <si>
+    <t>lcd scherm toevoegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardware </t>
+  </si>
+  <si>
+    <t>esp32</t>
+  </si>
+  <si>
+    <t>munten teller (CH-326)</t>
+  </si>
+  <si>
+    <t>behuizing (3d)</t>
+  </si>
+  <si>
+    <t>breadboard</t>
+  </si>
+  <si>
+    <t>draden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vscode </t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>wampserver</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>phpmyadmin</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>alles in elkaar steken</t>
+  </si>
+  <si>
+    <t>Voeding 12V DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de muntenteller traine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">muntenteller </t>
+  </si>
+  <si>
+    <t>de getelde waarde in de database steken(esp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aan de settingspagina gewerkt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de esp met de muntenteller laten werken  </t>
+  </si>
+  <si>
+    <t>de esp code herschrijven</t>
+  </si>
+  <si>
+    <t>de website code opkuisen</t>
+  </si>
+  <si>
+    <t>documentatie in orde brengen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">een pc </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +231,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,12 +281,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -250,14 +310,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D2010A1-06E6-4F00-8ADD-B4EAF4DC6AB6}" name="Tabel2" displayName="Tabel2" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{8D2010A1-06E6-4F00-8ADD-B4EAF4DC6AB6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{15B90CC4-6956-47D7-A984-37D129CA2C0D}" name="nog te doen: "/>
-    <tableColumn id="2" xr3:uid="{A97515EB-D2E4-49B9-B8A9-F60BF91EDA11}" name="stappen:" dataCellStyle="Goed"/>
-    <tableColumn id="3" xr3:uid="{481406F5-0F2A-41D1-9044-DFFF22369A8E}" name="stap1" dataCellStyle="Goed"/>
-    <tableColumn id="4" xr3:uid="{48EAFA30-A87C-4042-94CC-FAAEBCDC26EA}" name="stap2"/>
-    <tableColumn id="5" xr3:uid="{17F78619-6183-44C0-899B-F60674DEEF0D}" name="stap3" dataCellStyle="Ongeldig"/>
+    <tableColumn id="1" name="nog te doen: "/>
+    <tableColumn id="2" name="stappen:" dataCellStyle="Goed"/>
+    <tableColumn id="3" name="stap1" dataCellStyle="Goed"/>
+    <tableColumn id="4" name="stap2"/>
+    <tableColumn id="5" name="stap3" dataCellStyle="Ongeldig"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,11 +585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,138 +599,399 @@
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44936</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44937</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44939</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44943</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44944</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44950</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44951</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44953</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44957</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>44958</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>44960</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>44964</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44965</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44971</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44972</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44974</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44978</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44979</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>44985</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44988</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44992</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>45020</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>45021</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>45023</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>45027</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>45028</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45030</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>45051</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B990E1EF-39F8-4C95-B27F-B57F5DC33BFE}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,84 +1003,80 @@
     <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -767,4 +1084,87 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Giptijdsbesteding.xlsx
+++ b/Giptijdsbesteding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="5910" yWindow="3435" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="GIP tijdsbesteding" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -124,9 +124,6 @@
     <t xml:space="preserve">aan de doelen pagina werken </t>
   </si>
   <si>
-    <t>lcd scherm toevoegen</t>
-  </si>
-  <si>
     <t xml:space="preserve">software </t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>esp32</t>
   </si>
   <si>
-    <t>munten teller (CH-326)</t>
-  </si>
-  <si>
     <t>behuizing (3d)</t>
   </si>
   <si>
@@ -200,13 +194,73 @@
   </si>
   <si>
     <t xml:space="preserve">een pc </t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller (veel problemen)</t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller (problemen)</t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller (minder problemen)</t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller (weinig problemen)</t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller (de laatse kleine details)</t>
+  </si>
+  <si>
+    <t>aan de arduino code werken voor meer accuratie bij de muntenteller, veel accurater gemaakt en betrouwbaarder , vandaag was het klaar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Statistieken pagina aan passen de de data voor de statistieken genereren klopte niet (veel problemen) </t>
+  </si>
+  <si>
+    <t>marseille</t>
+  </si>
+  <si>
+    <t>munten teller (CH-926)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de doelen pagina aan passen kon de doelen niet tegenlijk updaten ook moeten de doelen bereikt worden , saldo , en beschikbaar bedrag toevoegen (veel problemen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e doelen pagina aan passen kon de doelen niet tegenlijk updaten ook moeten de doelen bereikt worden , saldo , en beschikbaar bedrag toevoegen (grote problemen) </t>
+  </si>
+  <si>
+    <t>e doelen pagina aan passen kon de doelen niet tegenlijk updaten ook moeten de doelen bereikt worden , saldo , en beschikbaar bedrag toevoegen ( problemen) , database aanpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e doelen pagina aan passen kon de doelen niet tegenlijk updaten ook moeten de doelen bereikt worden , saldo , en beschikbaar bedrag toevoegen (kleine problemen) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e doelen pagina aan passen kon de doelen niet tegenlijk updaten ook moeten de doelen bereikt worden , saldo , en beschikbaar bedrag toevoegen , alles is gelukt nu nog gewoon stylen </t>
+  </si>
+  <si>
+    <t>de styling van de login terug aangepast</t>
+  </si>
+  <si>
+    <t>de styling van de settings pagina aangepast</t>
+  </si>
+  <si>
+    <t>de gip bundel afwerken</t>
+  </si>
+  <si>
+    <t>de gip bundel afwerken, powerpoint gemaakt voor mijn gip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gip gepresenteerd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boekhouding van mijn gip alles bekijken en testen </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,20 +284,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,11 +307,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -275,24 +317,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -586,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +719,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44958</v>
       </c>
       <c r="B11" t="s">
@@ -688,7 +727,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44960</v>
       </c>
       <c r="B12" t="s">
@@ -696,79 +735,79 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44964</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44965</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44967</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44971</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44972</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>44974</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>44978</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>44979</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>44981</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>44985</v>
       </c>
       <c r="B22" t="s">
@@ -776,7 +815,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>44986</v>
       </c>
       <c r="B23" t="s">
@@ -784,7 +823,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>44988</v>
       </c>
       <c r="B24" t="s">
@@ -792,7 +831,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>44992</v>
       </c>
       <c r="B25" t="s">
@@ -800,7 +839,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>44993</v>
       </c>
       <c r="B26" t="s">
@@ -808,7 +847,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>44995</v>
       </c>
       <c r="B27" t="s">
@@ -816,7 +855,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>44999</v>
       </c>
       <c r="B28" t="s">
@@ -824,7 +863,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>45000</v>
       </c>
       <c r="B29" t="s">
@@ -832,7 +871,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>45002</v>
       </c>
       <c r="B30" t="s">
@@ -840,144 +879,291 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>45006</v>
       </c>
       <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45013</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>45007</v>
-      </c>
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>45009</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>45013</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>45014</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>45016</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45020</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45021</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45023</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45027</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45028</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45030</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45034</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>45020</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>45021</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>45023</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>45027</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>45028</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>45030</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>45034</v>
-      </c>
-    </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>45035</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>45037</v>
       </c>
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45041</v>
       </c>
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>45042</v>
       </c>
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>45044</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>45048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="B49" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>45049</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>45051</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -988,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1189,7 @@
     <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1030,20 +1216,18 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1056,27 +1240,26 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,66 +1285,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
